--- a/data/trans_dic/P1002-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.0222760952815066</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03413387503668431</v>
+        <v>0.0341338750366843</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007181042481028306</v>
+        <v>0.007392017823725301</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009870506502215316</v>
+        <v>0.01037015139590404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01059513609750371</v>
+        <v>0.01148839817853428</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01484388522669487</v>
+        <v>0.01646803226691419</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02827948100294316</v>
+        <v>0.02791951642066487</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01018478487450125</v>
+        <v>0.01025086582087194</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02851212363103162</v>
+        <v>0.02828310890060191</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01471419967371436</v>
+        <v>0.01489423852372158</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02235003943808107</v>
+        <v>0.02086325228070358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01414137083130881</v>
+        <v>0.0133431957671547</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01899271214053411</v>
+        <v>0.01791003724826303</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03688671683726785</v>
+        <v>0.03421301801289815</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03649986099984804</v>
+        <v>0.03572383397349492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03941315261245557</v>
+        <v>0.03997386574591599</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04016635934564863</v>
+        <v>0.04798243123383085</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04615854243246727</v>
+        <v>0.04783690882229447</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06925934485380005</v>
+        <v>0.07005114941111784</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04257498995131027</v>
+        <v>0.04053192838750995</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1026655681104866</v>
+        <v>0.1041264554607811</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03514717586296599</v>
+        <v>0.03456886161642968</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04623804379119232</v>
+        <v>0.04576239686189044</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03487360398850987</v>
+        <v>0.03583251658576162</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06195618164274487</v>
+        <v>0.05887151679005095</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03829462464441816</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04440008228252851</v>
+        <v>0.04440008228252852</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01602618780711656</v>
+        <v>0.01585908711226523</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01681049650610049</v>
+        <v>0.01648859631101599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02397223418868113</v>
+        <v>0.02396369876351178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01349575404480088</v>
+        <v>0.0130792555099087</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04230738177737345</v>
+        <v>0.04257990110870804</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03374836859378198</v>
+        <v>0.03230661481357228</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02677839327705494</v>
+        <v>0.0258496159243329</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03590722267660762</v>
+        <v>0.03750854369155918</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03226422882578803</v>
+        <v>0.03166205627684885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02747394503168336</v>
+        <v>0.02669045880908854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02831057083680424</v>
+        <v>0.0278292546917099</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0311770467001693</v>
+        <v>0.03004109618987869</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04005488806977241</v>
+        <v>0.04283889504059232</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04215740725304377</v>
+        <v>0.04302968440526605</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05518338482461781</v>
+        <v>0.05673838204368001</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05931415995616865</v>
+        <v>0.05994277835566839</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08358954249431409</v>
+        <v>0.08319999965837928</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07094281322601946</v>
+        <v>0.0676817636445865</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05692181851897596</v>
+        <v>0.05715434523128504</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0877074061855392</v>
+        <v>0.08756390993491087</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05459990619862531</v>
+        <v>0.05521319373409407</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05064933224325727</v>
+        <v>0.0496502603021312</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04977515949091525</v>
+        <v>0.05003965126490974</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06416715900809539</v>
+        <v>0.06355575174685114</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.04638786160379796</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05124768410261052</v>
+        <v>0.05124768410261053</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02648268525558202</v>
+        <v>0.02577094285105372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02918523108781448</v>
+        <v>0.03015962121558073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02041586462108556</v>
+        <v>0.0216834096593569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03307732560906015</v>
+        <v>0.03333956414012484</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03593396652839006</v>
+        <v>0.03746877117087766</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08841941945755123</v>
+        <v>0.08647928579610438</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04378128833811228</v>
+        <v>0.04341751288182246</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03918988781631438</v>
+        <v>0.0379732236926438</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03592897328247782</v>
+        <v>0.03578177556516772</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06456455988204392</v>
+        <v>0.06494739004862979</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03668029653078976</v>
+        <v>0.03522843618632728</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04061317445681288</v>
+        <v>0.04017884568877857</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05913753597221467</v>
+        <v>0.05952356329732432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06308946274256015</v>
+        <v>0.06331719582007653</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04839276882530888</v>
+        <v>0.05183007995252805</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07134662576157653</v>
+        <v>0.06952973407521296</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07023709337960198</v>
+        <v>0.07130424722635502</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.136740005613836</v>
+        <v>0.1360096808067786</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07794003805697908</v>
+        <v>0.07954544120225193</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06991435698691864</v>
+        <v>0.07131155691382303</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05962031574692406</v>
+        <v>0.05934742430271841</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09690474790668914</v>
+        <v>0.095471805329988</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05823097325136589</v>
+        <v>0.05925052298721814</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06502466617848844</v>
+        <v>0.06439875737062555</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.06334709028111976</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06189647267836362</v>
+        <v>0.0618964726783636</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09766757163970378</v>
@@ -1093,7 +1093,7 @@
         <v>0.09575782087066781</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08312182580239202</v>
+        <v>0.08312182580239204</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07169529988536909</v>
@@ -1105,7 +1105,7 @@
         <v>0.07959035170342607</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07277691446423953</v>
+        <v>0.07277691446423955</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02888703220660225</v>
+        <v>0.02954013013920991</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04663165827063139</v>
+        <v>0.04520789627804724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04468075842091609</v>
+        <v>0.04586507842997184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0445708330118584</v>
+        <v>0.04439556432135401</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07276943251968529</v>
+        <v>0.07524228249947901</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1029979883289756</v>
+        <v>0.1013926171160394</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07402794830012865</v>
+        <v>0.07356906783529457</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06749765576282087</v>
+        <v>0.06766672051857006</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05668014069805829</v>
+        <v>0.05725998660385905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08115756292301818</v>
+        <v>0.07948893279692347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06482965274734502</v>
+        <v>0.06550726148678912</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06110483659408676</v>
+        <v>0.0611608384201284</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06793920679327856</v>
+        <v>0.07047426714816943</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08951023398545035</v>
+        <v>0.08947168914933111</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08505861258662804</v>
+        <v>0.08311568412456265</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08318965656717378</v>
+        <v>0.08418272053497508</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1260307862572862</v>
+        <v>0.1258294576736537</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1612758678539455</v>
+        <v>0.1591102735882208</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1194031843904518</v>
+        <v>0.1181397849686111</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1003455863921705</v>
+        <v>0.1007028637493055</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08855174522271499</v>
+        <v>0.08952666491640958</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1178789361169733</v>
+        <v>0.1177032716236127</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09653469698772468</v>
+        <v>0.09746890221225359</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08610475723147101</v>
+        <v>0.08566201066545906</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05206986437931774</v>
+        <v>0.05040974579829128</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06756367704822884</v>
+        <v>0.06663638006738919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03704748623748124</v>
+        <v>0.03753860997311613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05476463583915074</v>
+        <v>0.05466699475215563</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07170302565992843</v>
+        <v>0.07294000623440515</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1597231105238736</v>
+        <v>0.1607952319388506</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1277618057602917</v>
+        <v>0.1269237411998183</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1058486284350125</v>
+        <v>0.1070731761937042</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06825811771103593</v>
+        <v>0.06580893680484645</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1231685713728384</v>
+        <v>0.1226054192029998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09047198291340317</v>
+        <v>0.08893702234599957</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08724871498764894</v>
+        <v>0.08600375701131532</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1041478395501105</v>
+        <v>0.1012503469949705</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1246599442056873</v>
+        <v>0.1253664662429854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08396010174545677</v>
+        <v>0.08537485490228183</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09390546072649121</v>
+        <v>0.09663191560601815</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1286807091743393</v>
+        <v>0.1293347336243513</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2385586652668598</v>
+        <v>0.2365530654993211</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1980024225576181</v>
+        <v>0.1956182219687655</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1495684197301469</v>
+        <v>0.1496663685098274</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1091069832985904</v>
+        <v>0.1047723797769655</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1706662353210268</v>
+        <v>0.1713792162713436</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1310221168159284</v>
+        <v>0.1312858587738103</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1155440954746482</v>
+        <v>0.1158622179284528</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.08866953127897136</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07449277758327395</v>
+        <v>0.07449277758327397</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1421187601168079</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07159144748416807</v>
+        <v>0.07330503385789817</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08921140935479654</v>
+        <v>0.0882693814325386</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06015180824942219</v>
+        <v>0.06091009065269928</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05556004104941301</v>
+        <v>0.0543884476079849</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1085226670487419</v>
+        <v>0.1078483264054012</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1737125411412348</v>
+        <v>0.1704769891944116</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1401717600562261</v>
+        <v>0.1397872275014126</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1199847552163443</v>
+        <v>0.1218259493832775</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1017516626159307</v>
+        <v>0.1007869828677871</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1442484263165732</v>
+        <v>0.1460618780564195</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1107735619293169</v>
+        <v>0.1132950912900235</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09436199709573743</v>
+        <v>0.09413348006956566</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1419109834513068</v>
+        <v>0.1419250483161746</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1738718060559656</v>
+        <v>0.1704720708107946</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1238375659981313</v>
+        <v>0.1261211958666106</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1015447015259735</v>
+        <v>0.101694805044333</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1765384530023606</v>
+        <v>0.1788064906613426</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2588009420138011</v>
+        <v>0.2569161993896257</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2176551374683246</v>
+        <v>0.2210654217219198</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1694612810028894</v>
+        <v>0.1722827883384209</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1522632650987477</v>
+        <v>0.1511363353581966</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2029355175829166</v>
+        <v>0.2051567407316109</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1629943638908267</v>
+        <v>0.1657951191285655</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1304763868004878</v>
+        <v>0.1279342035644876</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1190086947879105</v>
+        <v>0.1197623939929474</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1651253766237281</v>
+        <v>0.1666049357571552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08387961156175551</v>
+        <v>0.08149425406450007</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08609451873872728</v>
+        <v>0.087484856754622</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.139044020829297</v>
+        <v>0.1412037681499904</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2735736575531891</v>
+        <v>0.2684939273770605</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2013066205270242</v>
+        <v>0.1974305432178307</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2222157829290032</v>
+        <v>0.2222109735908605</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1450036770278556</v>
+        <v>0.1471121162420901</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2411053113226173</v>
+        <v>0.2441046846118215</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1624027923513655</v>
+        <v>0.1658481474438351</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1755712925496481</v>
+        <v>0.1734905182657091</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.212932149774176</v>
+        <v>0.2171289189106711</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.279531351686247</v>
+        <v>0.2791181760397428</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.156410464635869</v>
+        <v>0.1565189977971332</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1492138527742348</v>
+        <v>0.1460837020923169</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2305112951143317</v>
+        <v>0.2329770905745473</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3687371976820912</v>
+        <v>0.370123747885311</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3039520284786461</v>
+        <v>0.292997026408658</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2848132880724746</v>
+        <v>0.2822344503674625</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2130899928538474</v>
+        <v>0.2104632394195495</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3166764278119384</v>
+        <v>0.3179624188935238</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2316460830733489</v>
+        <v>0.234190080180551</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2194306088821481</v>
+        <v>0.2188071207324873</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.08063543046025795</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.08338369976374024</v>
+        <v>0.08338369976374026</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04561791769455013</v>
+        <v>0.04485752845310029</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05819748872309573</v>
+        <v>0.05858668507703232</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04640328862307517</v>
+        <v>0.04563499933950266</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04986364540248824</v>
+        <v>0.04996355194613659</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07574534866859473</v>
+        <v>0.07576039753044053</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1283439737729309</v>
+        <v>0.1258722863107273</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09734593562487395</v>
+        <v>0.09576970858402277</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.09902182280590767</v>
+        <v>0.09856670474054721</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06262181069777648</v>
+        <v>0.06264707577693479</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.09662109567559635</v>
+        <v>0.09643417675379984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07390109124363026</v>
+        <v>0.07444105189315071</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07761295882796553</v>
+        <v>0.07769003416436204</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06062996508829491</v>
+        <v>0.0606433966155803</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0769358020729087</v>
+        <v>0.07624692242660905</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06226696394403217</v>
+        <v>0.06145104242093648</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06600516980414559</v>
+        <v>0.066107937619137</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09442693102527638</v>
+        <v>0.09578016608480538</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1526526451169389</v>
+        <v>0.1513068300136877</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1189623545781974</v>
+        <v>0.118876249167771</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1174174911417711</v>
+        <v>0.1173348062631085</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0751566894242351</v>
+        <v>0.07453658112097733</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1124434051774719</v>
+        <v>0.1122331801093294</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08787393885071544</v>
+        <v>0.0873515454091955</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08966912292211414</v>
+        <v>0.08969348534244773</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3548</v>
+        <v>3652</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4483</v>
+        <v>4710</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4444</v>
+        <v>4819</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6939</v>
+        <v>7699</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12167</v>
+        <v>12012</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4031</v>
+        <v>4057</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10336</v>
+        <v>10253</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14148</v>
+        <v>14322</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19766</v>
+        <v>18451</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>11528</v>
+        <v>10878</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14630</v>
+        <v>13796</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18224</v>
+        <v>16903</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16576</v>
+        <v>16224</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16532</v>
+        <v>16768</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16380</v>
+        <v>19567</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21579</v>
+        <v>22363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29797</v>
+        <v>30138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16849</v>
+        <v>16041</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>37218</v>
+        <v>37747</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33796</v>
+        <v>33240</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40892</v>
+        <v>40471</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>28430</v>
+        <v>29211</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>47725</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11787</v>
+        <v>11664</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11550</v>
+        <v>11329</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14156</v>
+        <v>14150</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6436</v>
+        <v>6237</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26463</v>
+        <v>26633</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20595</v>
+        <v>19715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15091</v>
+        <v>14567</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17992</v>
+        <v>18795</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>43911</v>
+        <v>43091</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>35643</v>
+        <v>34627</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>32672</v>
+        <v>32116</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>30490</v>
+        <v>29379</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29460</v>
+        <v>31508</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28966</v>
+        <v>29565</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32586</v>
+        <v>33504</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28286</v>
+        <v>28586</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52285</v>
+        <v>52041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>43293</v>
+        <v>41303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32078</v>
+        <v>32209</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43949</v>
+        <v>43877</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>74309</v>
+        <v>75144</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>65710</v>
+        <v>64413</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>57443</v>
+        <v>57748</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>62754</v>
+        <v>62156</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16914</v>
+        <v>16459</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19873</v>
+        <v>20536</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13660</v>
+        <v>14508</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20536</v>
+        <v>20698</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24785</v>
+        <v>25844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62853</v>
+        <v>61474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28956</v>
+        <v>28716</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>24382</v>
+        <v>23625</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>47728</v>
+        <v>47533</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>89859</v>
+        <v>90392</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>48803</v>
+        <v>46871</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>50481</v>
+        <v>49941</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37769</v>
+        <v>38016</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42959</v>
+        <v>43114</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32379</v>
+        <v>34679</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>44295</v>
+        <v>43167</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48446</v>
+        <v>49182</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>97202</v>
+        <v>96682</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>51548</v>
+        <v>52610</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>43496</v>
+        <v>44366</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>79200</v>
+        <v>78838</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>134870</v>
+        <v>132875</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>77475</v>
+        <v>78832</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>80824</v>
+        <v>80046</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14997</v>
+        <v>15336</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28611</v>
+        <v>27738</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28866</v>
+        <v>29631</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31227</v>
+        <v>31104</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>37523</v>
+        <v>38798</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>63467</v>
+        <v>62478</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>48050</v>
+        <v>47752</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>49738</v>
+        <v>49863</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>58652</v>
+        <v>59252</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>99804</v>
+        <v>97752</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>83963</v>
+        <v>84840</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>87838</v>
+        <v>87919</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35270</v>
+        <v>36587</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>54920</v>
+        <v>54897</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>54952</v>
+        <v>53697</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>58284</v>
+        <v>58980</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>64987</v>
+        <v>64883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>99378</v>
+        <v>98044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>77502</v>
+        <v>76682</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>73943</v>
+        <v>74207</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>91632</v>
+        <v>92641</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>144963</v>
+        <v>144747</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>125024</v>
+        <v>126234</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>123776</v>
+        <v>123139</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20136</v>
+        <v>19494</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29014</v>
+        <v>28616</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17706</v>
+        <v>17940</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>33371</v>
+        <v>33311</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28967</v>
+        <v>29467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>71356</v>
+        <v>71834</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>63478</v>
+        <v>63062</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>64413</v>
+        <v>65158</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>53971</v>
+        <v>52035</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>107917</v>
+        <v>107424</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>88189</v>
+        <v>86693</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>106259</v>
+        <v>104743</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>40275</v>
+        <v>39155</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53533</v>
+        <v>53836</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40126</v>
+        <v>40802</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>57221</v>
+        <v>58882</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>51985</v>
+        <v>52249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>106575</v>
+        <v>105679</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>98377</v>
+        <v>97193</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>91018</v>
+        <v>91078</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>86270</v>
+        <v>82843</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>149533</v>
+        <v>150158</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>127716</v>
+        <v>127973</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>140719</v>
+        <v>141107</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>20946</v>
+        <v>21448</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>27636</v>
+        <v>27345</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20111</v>
+        <v>20364</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>22585</v>
+        <v>22109</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>37216</v>
+        <v>36985</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>61329</v>
+        <v>60187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>52952</v>
+        <v>52806</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>52693</v>
+        <v>53502</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>64665</v>
+        <v>64052</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>95613</v>
+        <v>96815</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>78881</v>
+        <v>80677</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>79798</v>
+        <v>79605</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>41521</v>
+        <v>41525</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>53863</v>
+        <v>52810</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41403</v>
+        <v>42166</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>41277</v>
+        <v>41338</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>60541</v>
+        <v>61319</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>91370</v>
+        <v>90705</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>82222</v>
+        <v>83510</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>74422</v>
+        <v>75661</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>96766</v>
+        <v>96050</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>134513</v>
+        <v>135985</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>116067</v>
+        <v>118061</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>110339</v>
+        <v>108189</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24978</v>
+        <v>25136</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>41257</v>
+        <v>41626</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21557</v>
+        <v>20944</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26653</v>
+        <v>27084</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>46428</v>
+        <v>47149</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>106414</v>
+        <v>104438</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>80557</v>
+        <v>79006</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>102891</v>
+        <v>102889</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>78852</v>
+        <v>79998</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>154025</v>
+        <v>155941</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>106726</v>
+        <v>108990</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>135648</v>
+        <v>134040</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>44691</v>
+        <v>45572</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>69841</v>
+        <v>69738</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>40197</v>
+        <v>40225</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>46194</v>
+        <v>45225</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>76970</v>
+        <v>77793</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>143431</v>
+        <v>143970</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>121632</v>
+        <v>117248</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>131876</v>
+        <v>130682</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>115876</v>
+        <v>114448</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>202302</v>
+        <v>203124</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>152230</v>
+        <v>153902</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>169534</v>
+        <v>169052</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>149469</v>
+        <v>146978</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>199314</v>
+        <v>200647</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>157509</v>
+        <v>154901</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>176096</v>
+        <v>176449</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>255958</v>
+        <v>256009</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>456431</v>
+        <v>447641</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>345047</v>
+        <v>339460</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>369683</v>
+        <v>367984</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>416795</v>
+        <v>416963</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>674521</v>
+        <v>673216</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>512792</v>
+        <v>516538</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>563851</v>
+        <v>564411</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>198657</v>
+        <v>198701</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>263489</v>
+        <v>261130</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>211356</v>
+        <v>208586</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>233101</v>
+        <v>233464</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>319087</v>
+        <v>323660</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>542880</v>
+        <v>538094</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>421667</v>
+        <v>421362</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>438360</v>
+        <v>438052</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>500223</v>
+        <v>496096</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>784978</v>
+        <v>783511</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>609748</v>
+        <v>606123</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>651438</v>
+        <v>651615</v>
       </c>
     </row>
     <row r="36">
